--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g9810\Documents\UiPath\Generate Yearly Report for Vendor Performer\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://auxis-my.sharepoint.com/personal/jcarmona_auxis_com/Documents/Documentos/UiPath/GenerateYearlyReport_Performer/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03DBED83-55AD-4028-829B-79087A8831F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{03DBED83-55AD-4028-829B-79087A8831F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C1CC292-4EA1-4A9A-93E5-3E2625079B44}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="4530" windowWidth="20880" windowHeight="10320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16575" yWindow="765" windowWidth="14400" windowHeight="7365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -126,82 +126,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <t>System1 application</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>URL</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>System1_Credential</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>System1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> application</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Credential</t>
-    </r>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -214,12 +139,38 @@
   <si>
     <t>Data\Temp</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">System1 application </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>URL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">System1 application </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>Credential</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -242,13 +193,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -285,7 +229,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -301,7 +245,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -600,15 +544,15 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+    <col min="1" max="1" width="43.54296875" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="81.453125" customWidth="1"/>
+    <col min="4" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -657,7 +601,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="30">
+    <row r="4" spans="1:26" ht="29">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -677,27 +621,27 @@
         <v>31</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1703,12 +1647,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.42578125" customWidth="1"/>
-    <col min="4" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="75.453125" customWidth="1"/>
+    <col min="4" max="26" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1745,7 +1689,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="30">
+    <row r="2" spans="1:26" ht="29">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1753,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
@@ -2813,12 +2757,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="26" width="65.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.81640625" customWidth="1"/>
+    <col min="2" max="2" width="30.1796875" customWidth="1"/>
+    <col min="3" max="3" width="60.26953125" customWidth="1"/>
+    <col min="4" max="26" width="65.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
